--- a/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. We want to welcome everybody today to our hearing on the Air Force Projection Forces Aviation Programs and Capabilities for Fiscal Year 2016. The unfortunate thing, as we all know, they are going to schedule votes or have scheduled votes anywhere from now to maybe 2:30, so we are going to waive our opening remarks. Mr. Courtney and I both have agreed to that. And with that, we want to get right to our witnesses so they can make whatever comments they would like to make to the members. I have told them previously, Mr. Courtney has agreed to this, of course, that all their written remarks will be made part of the record. You can refer to those if you would like or you can just talk off the cuff, but we are just glad to have both of you here.    As you know, we have Dr. William LaPlante here. He is the Assistant Secretary of the Air Force for Acquisition for the Department of the Air Force. Dr. LaPlante, thank you so much for joining us and for all the work you do for our country. We also have Lieutenant General James M. ``Mike'' Holmes, who is the Deputy Chief of Staff for Strategic Plans and Requirements for the Department of the Air Force. General, thank you again for your service, and to all those people who serve with you and below you. We appreciate their service to our country.    And with that, Dr. LaPlante, I think you are going to start us off, and then we will go the General. So the floor is yours.    [The prepared statements of Mr. Forbes and Mr. Courtney can be found in the Appendix beginning on page 15.]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>LaPlante</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. LaPlante. Thank you, Chairman Forbes, and thank you, Ranking Member Courtney, and the rest of the distinguished ladies and gentlemen of the committee. I appreciate the work you do and support you give us in the Pentagon and to the warfighter. And what you do is very important. And we hope we can answer all your questions and have a good discussion today.    General Holmes and I both have a joint prepared statement that we submitted for the record. I am not going to go through that statement here. I will just make a few remarks and then turn it over to General Holmes. I will start by saying that, you know, the challenge we have in our jobs in an acquisition and programming strategy is quite simple. It is that we have got these two competing problems. We have modernization, that is, that is the airplanes, in your case, the mobility airplanes, the bombers, that we are using today, and literally using in the fight today. And the pilots flying these airplanes are flying airplanes that are older than they are and keeping that going. At the same time, we have to modernize for the future.    Those two are linked, of course, because if we mess up the modernization, then we just put more at risk, those pilots flying those airplanes. So that is our challenge is between those two things. And our job every day, General Holmes and I, the Chief, the Secretary, our whole team, is keeping that all together, keeping it together with a strategy. Oh, and by the way, in a budget that is, to say the least, very, very challenging. So all our discussions we have is about the trades between those two categories, and then making sure that we keep the modernization programs, the KC-46, the next tanker, the next bomber, that we keep those programs on track and don't lose our eye on the ball while we keep the modernization going. And it is a difficult trade, but that is what--what we are here to talk to you about. I look forward to your questions.    I will just stop at this point and then let General Holmes give his remarks.    [The joint prepared statement of Dr. LaPlante and General Holmes can be found in the Appendix on page 18.]</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, gentlemen. I appreciate the tough job that you have. Quickly, I appreciate all you are doing and have done for the B-2 Stealth Bomber. Certainly the modernization program and everything is very, very important. You mention in your testimony that you are going to continue to pursue a number of sustainment initiatives to improve aircraft supportability, increase aircraft availability. I know that is something that I have been visiting with you all about as part sustainability and how--can you expand on some of the things that you are doing there to try to ensure that we have the parts we need for the </t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman. And Secretary LaPlante and General Holmes, thank you for your testimony today. As we proceed with the engineering development of the LRS-B [Long Range Strike Bomber], what are some of the strategies that have gone into developing the $550 million average procurement needed cost cap that you have set? Are you expecting to pursue an arrangement similar to the KC-46, utilizing a fixed price procurement vehicle?    And though the program is one of the Air Force's top three acquisition priorities, in fiscal year 2016 you have requested approximately $1.2 billion for development. What effects would we see to this program if Congress does not repeal sequestration?</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
   </si>
   <si>
     <t>412567</t>
-  </si>
-  <si>
-    <t>Jim Bridenstine</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Just out of curiosity, they called votes; is that correct?</t>
@@ -694,11 +679,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -718,13 +701,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -746,11 +727,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -772,11 +751,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -796,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -822,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -848,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -874,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -900,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -926,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -952,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -980,11 +943,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1004,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1030,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1056,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1084,11 +1039,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1108,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1136,11 +1087,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1160,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1188,11 +1135,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1212,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1240,11 +1183,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1264,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1292,11 +1231,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1316,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1342,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1368,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1394,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1420,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1446,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1472,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1498,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1524,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1550,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1576,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1602,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1628,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1654,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1680,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1706,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1732,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1758,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1784,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1810,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1836,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1862,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1888,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1914,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1940,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1966,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1992,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2018,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2044,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2070,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2096,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2122,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2148,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2174,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2200,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2226,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2252,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2278,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2304,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2330,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2356,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2382,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2408,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2434,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2460,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2486,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2512,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2538,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2564,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2590,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2616,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2644,11 +2479,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2668,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2696,11 +2527,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. We want to welcome everybody today to our hearing on the Air Force Projection Forces Aviation Programs and Capabilities for Fiscal Year 2016. The unfortunate thing, as we all know, they are going to schedule votes or have scheduled votes anywhere from now to maybe 2:30, so we are going to waive our opening remarks. Mr. Courtney and I both have agreed to that. And with that, we want to get right to our witnesses so they can make whatever comments they would like to make to the members. I have told them previously, Mr. Courtney has agreed to this, of course, that all their written remarks will be made part of the record. You can refer to those if you would like or you can just talk off the cuff, but we are just glad to have both of you here.    As you know, we have Dr. William LaPlante here. He is the Assistant Secretary of the Air Force for Acquisition for the Department of the Air Force. Dr. LaPlante, thank you so much for joining us and for all the work you do for our country. We also have Lieutenant General James M. ``Mike'' Holmes, who is the Deputy Chief of Staff for Strategic Plans and Requirements for the Department of the Air Force. General, thank you again for your service, and to all those people who serve with you and below you. We appreciate their service to our country.    And with that, Dr. LaPlante, I think you are going to start us off, and then we will go the General. So the floor is yours.    [The prepared statements of Mr. Forbes and Mr. Courtney can be found in the Appendix beginning on page 15.]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>LaPlante</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. LaPlante. Thank you, Chairman Forbes, and thank you, Ranking Member Courtney, and the rest of the distinguished ladies and gentlemen of the committee. I appreciate the work you do and support you give us in the Pentagon and to the warfighter. And what you do is very important. And we hope we can answer all your questions and have a good discussion today.    General Holmes and I both have a joint prepared statement that we submitted for the record. I am not going to go through that statement here. I will just make a few remarks and then turn it over to General Holmes. I will start by saying that, you know, the challenge we have in our jobs in an acquisition and programming strategy is quite simple. It is that we have got these two competing problems. We have modernization, that is, that is the airplanes, in your case, the mobility airplanes, the bombers, that we are using today, and literally using in the fight today. And the pilots flying these airplanes are flying airplanes that are older than they are and keeping that going. At the same time, we have to modernize for the future.    Those two are linked, of course, because if we mess up the modernization, then we just put more at risk, those pilots flying those airplanes. So that is our challenge is between those two things. And our job every day, General Holmes and I, the Chief, the Secretary, our whole team, is keeping that all together, keeping it together with a strategy. Oh, and by the way, in a budget that is, to say the least, very, very challenging. So all our discussions we have is about the trades between those two categories, and then making sure that we keep the modernization programs, the KC-46, the next tanker, the next bomber, that we keep those programs on track and don't lose our eye on the ball while we keep the modernization going. And it is a difficult trade, but that is what--what we are here to talk to you about. I look forward to your questions.    I will just stop at this point and then let General Holmes give his remarks.    [The joint prepared statement of Dr. LaPlante and General Holmes can be found in the Appendix on page 18.]</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, gentlemen. I appreciate the tough job that you have. Quickly, I appreciate all you are doing and have done for the B-2 Stealth Bomber. Certainly the modernization program and everything is very, very important. You mention in your testimony that you are going to continue to pursue a number of sustainment initiatives to improve aircraft supportability, increase aircraft availability. I know that is something that I have been visiting with you all about as part sustainability and how--can you expand on some of the things that you are doing there to try to ensure that we have the parts we need for the </t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman. And Secretary LaPlante and General Holmes, thank you for your testimony today. As we proceed with the engineering development of the LRS-B [Long Range Strike Bomber], what are some of the strategies that have gone into developing the $550 million average procurement needed cost cap that you have set? Are you expecting to pursue an arrangement similar to the KC-46, utilizing a fixed price procurement vehicle?    And though the program is one of the Air Force's top three acquisition priorities, in fiscal year 2016 you have requested approximately $1.2 billion for development. What effects would we see to this program if Congress does not repeal sequestration?</t>
   </si>
   <si>
@@ -116,6 +140,12 @@
   </si>
   <si>
     <t>412567</t>
+  </si>
+  <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Just out of curiosity, they called votes; is that correct?</t>
@@ -629,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +667,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,1877 +689,2214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
       <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
       <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
       <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
       <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
       <c r="H54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
       <c r="H56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
       <c r="H58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
       <c r="H60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
       <c r="H62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
       <c r="H64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
       <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
       <c r="H68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
       <c r="H69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
       <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
       <c r="H71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
       <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
       <c r="H74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
       <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
       <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>412444</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Hartzler</t>
@@ -659,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +676,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,2211 +701,2392 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
